--- a/TK/dn1.xlsx
+++ b/TK/dn1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Testi za removeFirst, getFirst, isEmpty, depth in size</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>Testi za exists() in remove()</t>
+  </si>
+  <si>
+    <t>Dopolnitev testov</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,7 +153,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +504,7 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -526,7 +534,7 @@
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -556,7 +564,7 @@
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -618,7 +626,7 @@
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -628,22 +636,89 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="5"/>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TK/dn1.xlsx
+++ b/TK/dn1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Dopolnitev testov</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>SeznamiUV</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,16 +715,52 @@
       <c r="E10" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
